--- a/data/trans_dic/P15-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P15-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,59%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>8,1; 13,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>10,18; 16,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>7,59; 13,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>2,34; 10,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>3,12; 6,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>5,04; 10,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>2,87; 6,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>3,23; 11,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>6,31; 9,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>8,32; 12,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>5,81; 9,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>3,22; 8,68</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,72%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>6,81; 10,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>9,73; 14,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>6,52; 10,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>3,7; 10,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>4,02; 7,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>4,57; 8,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>2,66; 5,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,78; 5,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>5,83; 8,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>7,77; 11,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>5,05; 7,81</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>3,26; 6,8</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,89%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>5,23; 9,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>6,21; 10,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>3,7; 7,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>4,8; 9,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,8; 4,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,8; 5,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,47; 5,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>3,62; 6,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>3,9; 6,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>4,8; 7,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>3,46; 5,91</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>4,69; 7,31</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,74%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>5,78; 10,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>4,32; 8,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>3,02; 6,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>5,14; 9,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>2,27; 5,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>4,07; 7,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>2,38; 5,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>3,23; 5,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,53; 7,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>4,63; 7,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>3,09; 5,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>4,54; 7,03</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,76%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>3,08; 7,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>1,53; 5,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>1,54; 4,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>3,54; 7,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>2,69; 6,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>6,63; 12,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>4,17; 9,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,96; 8,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>3,36; 6,3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>4,82; 8,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>3,28; 6,13</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,65; 7,01</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,65%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>2,4; 5,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>5,11; 9,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>3,03; 6,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,28; 7,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>6,79; 11,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>8,52; 13,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>7,15; 11,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>6,34; 10,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>5,36; 8,26</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>7,61; 10,84</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>5,66; 8,65</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>5,98; 8,83</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,08%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,57; 8,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,41; 9,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,05; 6,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,18; 7,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,49; 6,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,34; 8,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,67; 6,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>5,31; 6,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,66; 6,94</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,15; 8,54</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,1; 6,21</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>5,49; 6,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P15-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,48%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 10,27</t>
+          <t>2,22; 9,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,23; 11,64</t>
+          <t>3,16; 11,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,68</t>
+          <t>3,18; 8,76</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,19 +811,19 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>6,44%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5,64%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>6,4%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,64%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,4%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
           <t>4,02%</t>
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,52%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 10,24</t>
+          <t>3,71; 10,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 5,22</t>
+          <t>1,45; 4,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 6,8</t>
+          <t>3,02; 6,77</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>6,03%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 9,38</t>
+          <t>5,02; 9,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,55</t>
+          <t>3,66; 6,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,69; 7,31</t>
+          <t>4,76; 7,48</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>5,0%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 9,59</t>
+          <t>2,42; 8,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,7</t>
+          <t>3,07; 5,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,03</t>
+          <t>2,97; 6,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,8%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,54; 7,14</t>
+          <t>3,62; 7,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,96; 8,1</t>
+          <t>5,03; 8,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 7,01</t>
+          <t>4,69; 7,04</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>3,27%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>4,42%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,54%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>5,04%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,7</t>
+          <t>1,9; 6,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,11; 9,51</t>
+          <t>3,44; 9,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,03; 6,17</t>
+          <t>1,65; 5,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,28; 7,12</t>
+          <t>2,8; 6,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,79; 11,44</t>
+          <t>5,21; 10,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,52; 13,15</t>
+          <t>4,93; 10,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,15; 11,49</t>
+          <t>5,33; 11,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,34; 10,85</t>
+          <t>1,96; 8,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,36; 8,26</t>
+          <t>4,07; 7,66</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,61; 10,84</t>
+          <t>4,73; 8,5</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,66; 8,65</t>
+          <t>4,05; 7,53</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,98; 8,83</t>
+          <t>2,56; 6,84</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>10,4%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>1,78; 7,79</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5,76; 13,25</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3,78; 9,1</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5,1; 9,82</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7,21; 14,23</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>10,69; 17,97</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7,04; 14,61</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>10,26; 14,8</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5,7; 10,58</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>9,69; 14,85</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6,36; 11,15</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8,89; 12,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7,42%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8,4%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5,78%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5,19%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7,24%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5,83%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6,29%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>7,81%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5,64%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>6,57; 8,42</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>7,41; 9,5</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>5,05; 6,75</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>5,18; 7,07</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4,52; 6,85</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>4,49; 6,02</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>6,34; 8,16</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>4,67; 6,28</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>5,31; 6,88</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4,81; 6,62</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>5,66; 6,94</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>7,15; 8,54</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>5,1; 6,21</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>5,49; 6,72</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>4,95; 6,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P15-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,1; 13,82</t>
+          <t>8,09; 13,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,18; 16,42</t>
+          <t>10,36; 16,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,59; 13,89</t>
+          <t>7,68; 13,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,22; 9,97</t>
+          <t>2,17; 10,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,97</t>
+          <t>3,19; 7,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,04; 10,1</t>
+          <t>5,03; 10,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,87; 6,97</t>
+          <t>2,9; 7,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,16; 11,64</t>
+          <t>3,11; 11,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,31; 9,67</t>
+          <t>6,27; 9,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,32; 12,29</t>
+          <t>8,39; 12,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,81; 9,69</t>
+          <t>6,05; 9,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,18; 8,76</t>
+          <t>3,18; 8,92</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 10,95</t>
+          <t>6,76; 10,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,73; 14,69</t>
+          <t>9,57; 14,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,52; 10,84</t>
+          <t>6,52; 10,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 10,45</t>
+          <t>3,77; 10,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,92</t>
+          <t>3,82; 7,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,57; 8,8</t>
+          <t>4,75; 8,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 5,98</t>
+          <t>2,63; 5,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,83</t>
+          <t>1,41; 4,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,83; 8,77</t>
+          <t>6,07; 8,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,77; 11,09</t>
+          <t>7,86; 11,08</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,05; 7,81</t>
+          <t>5,04; 7,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,77</t>
+          <t>3,07; 6,65</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 9,7</t>
+          <t>5,22; 9,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,21; 10,9</t>
+          <t>6,3; 10,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,34</t>
+          <t>3,79; 7,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 9,69</t>
+          <t>5,02; 9,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,43</t>
+          <t>1,89; 4,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 5,7</t>
+          <t>2,87; 5,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,62</t>
+          <t>2,49; 5,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,64</t>
+          <t>3,74; 6,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 6,33</t>
+          <t>3,82; 6,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 7,58</t>
+          <t>4,97; 7,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 5,91</t>
+          <t>3,48; 5,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 7,48</t>
+          <t>4,64; 7,41</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,78; 10,8</t>
+          <t>5,86; 10,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,32; 8,42</t>
+          <t>4,41; 8,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,46</t>
+          <t>2,96; 6,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,42; 8,56</t>
+          <t>2,26; 8,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,83</t>
+          <t>2,43; 5,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 7,99</t>
+          <t>4,13; 8,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,47</t>
+          <t>2,43; 5,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 5,53</t>
+          <t>3,0; 5,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 7,64</t>
+          <t>4,51; 7,53</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 7,48</t>
+          <t>4,65; 7,39</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 5,37</t>
+          <t>3,09; 5,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,42</t>
+          <t>3,12; 6,49</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,08; 7,54</t>
+          <t>3,0; 7,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,08</t>
+          <t>1,72; 5,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,82</t>
+          <t>1,61; 4,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,62; 7,22</t>
+          <t>3,53; 7,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,83</t>
+          <t>2,69; 6,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,63; 12,13</t>
+          <t>6,65; 12,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,17; 9,08</t>
+          <t>4,07; 8,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,03; 8,16</t>
+          <t>5,02; 8,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,3</t>
+          <t>3,24; 6,38</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,82; 8,0</t>
+          <t>4,58; 7,99</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,28; 6,13</t>
+          <t>3,34; 6,29</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,69; 7,04</t>
+          <t>4,67; 7,11</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,9; 6,09</t>
+          <t>2,03; 6,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,44; 9,0</t>
+          <t>3,05; 8,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 5,44</t>
+          <t>1,67; 5,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,25</t>
+          <t>2,8; 6,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,21; 10,72</t>
+          <t>4,9; 10,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,93; 10,31</t>
+          <t>4,69; 10,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,33; 11,27</t>
+          <t>5,19; 10,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,96; 8,75</t>
+          <t>2,31; 8,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,07; 7,66</t>
+          <t>4,23; 7,76</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,73; 8,5</t>
+          <t>4,61; 8,53</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,05; 7,53</t>
+          <t>4,13; 7,69</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,56; 6,84</t>
+          <t>2,67; 6,95</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,78; 7,79</t>
+          <t>2,19; 7,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,76; 13,25</t>
+          <t>5,39; 13,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,78; 9,1</t>
+          <t>3,49; 9,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,1; 9,82</t>
+          <t>5,21; 9,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,21; 14,23</t>
+          <t>7,07; 14,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,69; 17,97</t>
+          <t>10,54; 17,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,04; 14,61</t>
+          <t>7,13; 14,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,26; 14,8</t>
+          <t>10,35; 14,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,7; 10,58</t>
+          <t>5,74; 10,48</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,69; 14,85</t>
+          <t>9,73; 14,74</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,36; 11,15</t>
+          <t>6,45; 11,12</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,89; 12,17</t>
+          <t>8,87; 11,98</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,57; 8,42</t>
+          <t>6,51; 8,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,41; 9,5</t>
+          <t>7,42; 9,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,05; 6,75</t>
+          <t>5,08; 6,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,85</t>
+          <t>4,51; 6,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,49; 6,02</t>
+          <t>4,47; 6,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,34; 8,16</t>
+          <t>6,37; 8,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,67; 6,28</t>
+          <t>4,71; 6,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,81; 6,62</t>
+          <t>4,85; 6,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,66; 6,94</t>
+          <t>5,69; 6,93</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7,15; 8,54</t>
+          <t>7,13; 8,48</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5,1; 6,21</t>
+          <t>5,11; 6,22</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>4,95; 6,48</t>
+          <t>4,98; 6,49</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>53086</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>59630</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>43980</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>19137</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>22468</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>31675</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18264</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19928</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>75554</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>91305</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>62244</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>39065</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>39992; 67682</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>47035; 75906</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>32230; 57768</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8671; 41973</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>14904; 34854</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21658; 43683</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11476; 28152</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9735; 35376</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>60296; 93694</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>74185; 111542</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>49317; 79384</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>22672; 63586</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>64515</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>82320</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>50857</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>27267</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>35269</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>39074</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>22679</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14974</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>99784</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>121393</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>73536</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>42240</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>49712; 80106</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>65754; 100184</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>38487; 64643</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>15979; 44037</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>23868; 49133</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>28986; 54332</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>14824; 32470</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7188; 24583</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>82579; 120713</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>102016; 143740</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>58215; 90515</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>28750; 62217</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>45889</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>56566</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>35858</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>37002</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>20157</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>29388</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>25048</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>28034</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>66046</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>85954</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>60906</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>65037</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>33333; 60341</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>42941; 73735</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>25332; 50149</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>26916; 50590</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13011; 30412</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>20391; 41545</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16452; 37750</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>20271; 37017</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>50683; 82937</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>69247; 105796</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>46314; 78260</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>50064; 79950</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>41139</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>37146</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>28832</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>50698</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19886</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>36056</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>24485</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>29385</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>61024</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>73202</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>53317</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>80083</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>30404; 56738</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>27114; 52187</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>19136; 41237</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>20087; 76189</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12515; 30203</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>25465; 50033</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>15777; 36688</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>21355; 38746</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>46638; 77913</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>57234; 90934</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>40022; 69400</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>50020; 103880</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>18836</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>12921</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>13989</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>28933</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>17804</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>41757</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>30358</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>35389</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>36640</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>54678</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>44347</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>64321</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>11610; 28905</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7368; 21970</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7680; 23077</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>19822; 41165</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10883; 27151</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>29791; 55634</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>20201; 44609</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>27496; 45033</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>25630; 50458</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>40198; 70114</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>32603; 61299</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>51825; 78914</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10770</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>17298</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>10932</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>16285</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>25638</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>25331</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>29301</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>32944</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>36408</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>42629</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>40233</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>49230</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5940; 18488</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>9437; 26897</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>5588; 18822</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>10316; 23234</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>16814; 36082</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>16586; 36084</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>19606; 40463</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>14079; 54131</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>26904; 49303</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>30594; 56626</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>29429; 54774</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>26111; 67875</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>8822</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>22032</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>15185</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>20737</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>34169</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>54192</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>41318</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>52949</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>42991</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>76224</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>56503</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>73686</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>4606; 16681</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>13468; 32564</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>8981; 23453</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>14729; 27811</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>23600; 47279</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>40991; 69120</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>28519; 56244</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>44061; 62792</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>31189; 56998</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>62128; 94151</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>42364; 73091</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>62867; 84872</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>243056</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>287913</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>199634</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>200059</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>175391</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>257472</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>191453</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>213603</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>418447</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>545385</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>391087</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>413662</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>213412; 272920</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>254257; 323070</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>172348; 227456</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>156189; 237795</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>151081; 206321</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>226504; 290278</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>166967; 219653</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>177727; 248580</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>379017; 461354</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>498305; 592513</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>354579; 431587</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>354667; 462516</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>